--- a/biology/Médecine/Myristicine/Myristicine.xlsx
+++ b/biology/Médecine/Myristicine/Myristicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La myristicine ou  5-allyl-1-méthoxy-2,3-méthylènedioxybenzène est un composé de la famille des phénylpropènes, une sous-classe des phénylpropanoïdes. Elle est présente dans certaines huiles essentielles et est notamment présente dans la noix de muscade (Myristica fragrans) et dans une moindre mesure dans d'autres plantes aromatiques telles le persil, l'aneth et les carottes. 
